--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf10-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf10-Fgfr1.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.25548833333333</v>
+        <v>13.67700833333333</v>
       </c>
       <c r="N2">
-        <v>30.766465</v>
+        <v>41.031025</v>
       </c>
       <c r="O2">
-        <v>0.09996462463766298</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="P2">
-        <v>0.09996462463766297</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="Q2">
-        <v>0.7402103814350001</v>
+        <v>0.987165430475</v>
       </c>
       <c r="R2">
-        <v>6.661893432915001</v>
+        <v>8.884488874275</v>
       </c>
       <c r="S2">
-        <v>0.09996462463766298</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="T2">
-        <v>0.09996462463766297</v>
+        <v>0.124413831206147</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>74.649396</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N3">
         <v>223.948188</v>
       </c>
       <c r="O3">
-        <v>0.7276395436298834</v>
+        <v>0.679053278848249</v>
       </c>
       <c r="P3">
-        <v>0.7276395436298831</v>
+        <v>0.6790532788482488</v>
       </c>
       <c r="Q3">
-        <v>5.387969455092</v>
+        <v>5.387969455092001</v>
       </c>
       <c r="R3">
         <v>48.491725095828</v>
       </c>
       <c r="S3">
-        <v>0.7276395436298834</v>
+        <v>0.679053278848249</v>
       </c>
       <c r="T3">
-        <v>0.7276395436298831</v>
+        <v>0.6790532788482488</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.869824</v>
+        <v>1.629335666666667</v>
       </c>
       <c r="N4">
-        <v>2.609472</v>
+        <v>4.888007</v>
       </c>
       <c r="O4">
-        <v>0.008478546007235205</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="P4">
-        <v>0.008478546007235204</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="Q4">
-        <v>0.06278128684800001</v>
+        <v>0.117600560413</v>
       </c>
       <c r="R4">
-        <v>0.5650315816320001</v>
+        <v>1.058405043717</v>
       </c>
       <c r="S4">
-        <v>0.008478546007235205</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="T4">
-        <v>0.008478546007235204</v>
+        <v>0.01482136207497777</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.20207433333333</v>
+        <v>19.17462033333333</v>
       </c>
       <c r="N5">
-        <v>48.606223</v>
+        <v>57.523861</v>
       </c>
       <c r="O5">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="P5">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="Q5">
-        <v>1.169417119157</v>
+        <v>1.383966571799</v>
       </c>
       <c r="R5">
-        <v>10.524754072413</v>
+        <v>12.455699146191</v>
       </c>
       <c r="S5">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="T5">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6143926666666666</v>
+        <v>0.801214</v>
       </c>
       <c r="N6">
-        <v>1.843178</v>
+        <v>2.403642</v>
       </c>
       <c r="O6">
-        <v>0.005988747713148012</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="P6">
-        <v>0.00598874771314801</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="Q6">
-        <v>0.044345019502</v>
+        <v>0.05782922287800001</v>
       </c>
       <c r="R6">
-        <v>0.399105175518</v>
+        <v>0.520463005902</v>
       </c>
       <c r="S6">
-        <v>0.005988747713148012</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="T6">
-        <v>0.00598874771314801</v>
+        <v>0.007288297332762355</v>
       </c>
     </row>
   </sheetData>
